--- a/point.xlsx
+++ b/point.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_work\pyneo\suidao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A983EDDA-187E-4DE0-8129-A3807C53CA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDA3BF8-C5B3-4DCE-8013-D14B4F7E84BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="207">
   <si>
     <t>RMR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,13 +264,470 @@
   <si>
     <t>E-分值</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围岩等级</t>
+  </si>
+  <si>
+    <t>隧道掌子面</t>
+  </si>
+  <si>
+    <t>公路隧道施工</t>
+  </si>
+  <si>
+    <t>计算机视觉</t>
+  </si>
+  <si>
+    <t>智能判别系统</t>
+  </si>
+  <si>
+    <t>信息化施工</t>
+  </si>
+  <si>
+    <t>深埋隧道</t>
+  </si>
+  <si>
+    <t>机器学习</t>
+  </si>
+  <si>
+    <t>多源异构信息</t>
+  </si>
+  <si>
+    <t>监控量测</t>
+  </si>
+  <si>
+    <t>掘进参数</t>
+  </si>
+  <si>
+    <t>集成学习技术</t>
+  </si>
+  <si>
+    <t>智能识别</t>
+  </si>
+  <si>
+    <t>围岩稳定性</t>
+  </si>
+  <si>
+    <t>隧道围岩</t>
+  </si>
+  <si>
+    <t>公路隧道</t>
+  </si>
+  <si>
+    <t>综合评判系统</t>
+  </si>
+  <si>
+    <t>高速公路隧道</t>
+  </si>
+  <si>
+    <t>智能算法</t>
+  </si>
+  <si>
+    <t>智能辅助决策系统</t>
+  </si>
+  <si>
+    <t>分级方法</t>
+  </si>
+  <si>
+    <t>特征参数</t>
+  </si>
+  <si>
+    <t>复合地层</t>
+  </si>
+  <si>
+    <t>支护对策</t>
+  </si>
+  <si>
+    <t>Mask R-CNN</t>
+  </si>
+  <si>
+    <t>动态设计</t>
+  </si>
+  <si>
+    <t>机器视觉</t>
+  </si>
+  <si>
+    <t>MSR算法</t>
+  </si>
+  <si>
+    <t>围岩分级</t>
+  </si>
+  <si>
+    <t>专业关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化技术</t>
+  </si>
+  <si>
+    <t>水利水电工程</t>
+  </si>
+  <si>
+    <t>计算机软件及计算机应用</t>
+  </si>
+  <si>
+    <t>公路与水路运输</t>
+  </si>
+  <si>
+    <t>工业通用技术及设备</t>
+  </si>
+  <si>
+    <t>地质学</t>
+  </si>
+  <si>
+    <t>学科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵活设计方案</t>
+  </si>
+  <si>
+    <t>学习算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应对措施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隧道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深地工程多维信息感知与智能建造的发展与展望</t>
+  </si>
+  <si>
+    <t>基于机器视觉的隧道围岩智能识别分级与开挖安全风险研究</t>
+  </si>
+  <si>
+    <t>钻爆法隧道智能建造研究现状与发展趋势</t>
+  </si>
+  <si>
+    <t>隧道围岩分级方法研究综述</t>
+  </si>
+  <si>
+    <t>基于盾构实时监测数据的围岩分类和掘进速度智能预测分析</t>
+  </si>
+  <si>
+    <t>基于MSR算法的公路隧道围岩分级方法</t>
+  </si>
+  <si>
+    <t>基于钻孔信息的围岩等级智能识别方法研究</t>
+  </si>
+  <si>
+    <t>山岭短隧道群施工多元信息预警及智能优化研究</t>
+  </si>
+  <si>
+    <t>隧道围岩分级特征智能识别及可视化研究</t>
+  </si>
+  <si>
+    <t>基于深度学习的隧道掌子面围岩智能分级系统研发</t>
+  </si>
+  <si>
+    <t>基于机器学习的隧道围岩分级方法及钻进参数优化研究</t>
+  </si>
+  <si>
+    <t>隧道围岩分级方法研究进展及“人工智能+”应用动态</t>
+  </si>
+  <si>
+    <t>公路隧道围岩分级及失稳风险评估与系统开发</t>
+  </si>
+  <si>
+    <t>融合多源异构信息的隧道围岩智能分级方法探索</t>
+  </si>
+  <si>
+    <t>基于多源数据融合的隧道围岩渐进式分级评价研究</t>
+  </si>
+  <si>
+    <t>基于计算机视觉的隧道围岩智能分级及支护参数优化方法</t>
+  </si>
+  <si>
+    <t>智能算法在隧道围岩分级判别中的应用研究</t>
+  </si>
+  <si>
+    <t>岩石岩性Mask R-CNN智能识别方法与应用研究</t>
+  </si>
+  <si>
+    <t>基于机器学习的公路隧道围岩智能分级方法研究及应用</t>
+  </si>
+  <si>
+    <t>高原隧道围岩快速分级综合评价及其应用研究</t>
+  </si>
+  <si>
+    <t>文献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能围岩分级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李向阳</t>
+  </si>
+  <si>
+    <t>李鸿钊</t>
+  </si>
+  <si>
+    <t>郑帅</t>
+  </si>
+  <si>
+    <t>张运波</t>
+  </si>
+  <si>
+    <t>尹鹏飞</t>
+  </si>
+  <si>
+    <t>姜雯</t>
+  </si>
+  <si>
+    <t>蒋擎</t>
+  </si>
+  <si>
+    <t>王宇</t>
+  </si>
+  <si>
+    <t>李子意</t>
+  </si>
+  <si>
+    <t>张良</t>
+  </si>
+  <si>
+    <t>综述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张茹</t>
+  </si>
+  <si>
+    <t>吕游</t>
+  </si>
+  <si>
+    <t>张泽天</t>
+  </si>
+  <si>
+    <t>任利</t>
+  </si>
+  <si>
+    <t>谢晶</t>
+  </si>
+  <si>
+    <t>张安林</t>
+  </si>
+  <si>
+    <t>严志伟</t>
+  </si>
+  <si>
+    <t>米欧</t>
+  </si>
+  <si>
+    <t>黄宏伟</t>
+  </si>
+  <si>
+    <t>陈佳耀</t>
+  </si>
+  <si>
+    <t>李利平</t>
+  </si>
+  <si>
+    <t>邹浩</t>
+  </si>
+  <si>
+    <t>刘洪亮</t>
+  </si>
+  <si>
+    <t>屠文锋</t>
+  </si>
+  <si>
+    <t>陈雨雪</t>
+  </si>
+  <si>
+    <t>徐博</t>
+  </si>
+  <si>
+    <t>谢慈航</t>
+  </si>
+  <si>
+    <t>吴莹</t>
+  </si>
+  <si>
+    <t>柳厚祥</t>
+  </si>
+  <si>
+    <t>陈卫东</t>
+  </si>
+  <si>
+    <t>李天斌</t>
+  </si>
+  <si>
+    <t>黄音昊</t>
+  </si>
+  <si>
+    <t>杨罡</t>
+  </si>
+  <si>
+    <t>王皓</t>
+  </si>
+  <si>
+    <t>肖华波</t>
+  </si>
+  <si>
+    <t>申艳军</t>
+  </si>
+  <si>
+    <t>李曙光</t>
+  </si>
+  <si>
+    <t>张津源</t>
+  </si>
+  <si>
+    <t>马文</t>
+  </si>
+  <si>
+    <t>张蕾</t>
+  </si>
+  <si>
+    <t>许振浩</t>
+  </si>
+  <si>
+    <t>黄勇</t>
+  </si>
+  <si>
+    <t>袁振宇</t>
+  </si>
+  <si>
+    <t>安哲立</t>
+  </si>
+  <si>
+    <t>马伟斌</t>
+  </si>
+  <si>
+    <t>马成贤</t>
+  </si>
+  <si>
+    <t>王勇</t>
+  </si>
+  <si>
+    <t>常凯</t>
+  </si>
+  <si>
+    <t>刘爽</t>
+  </si>
+  <si>
+    <t>吕春</t>
+  </si>
+  <si>
+    <t>屈恩相</t>
+  </si>
+  <si>
+    <t>邓琳</t>
+  </si>
+  <si>
+    <t>张彦明</t>
+  </si>
+  <si>
+    <t>雷明锋</t>
+  </si>
+  <si>
+    <t>王卫东</t>
+  </si>
+  <si>
+    <t>雷乃金</t>
+  </si>
+  <si>
+    <t>曾灿</t>
+  </si>
+  <si>
+    <t>肖勇卓</t>
+  </si>
+  <si>
+    <t>黄娟</t>
+  </si>
+  <si>
+    <t>龚琛杰</t>
+  </si>
+  <si>
+    <t>研究人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤炭学报</t>
+  </si>
+  <si>
+    <t>应用基础与工程科学学报</t>
+  </si>
+  <si>
+    <t>中国公路学报</t>
+  </si>
+  <si>
+    <t>隧道建设(中英文)</t>
+  </si>
+  <si>
+    <t>西安理工大学</t>
+  </si>
+  <si>
+    <t>交通科学与工程</t>
+  </si>
+  <si>
+    <t>山东大学</t>
+  </si>
+  <si>
+    <t>大连海事大学</t>
+  </si>
+  <si>
+    <t>铁道科学与工程学报</t>
+  </si>
+  <si>
+    <t>中南大学</t>
+  </si>
+  <si>
+    <t>中国矿业大学</t>
+  </si>
+  <si>
+    <t>东南大学</t>
+  </si>
+  <si>
+    <t>建材发展导向</t>
+  </si>
+  <si>
+    <t>长沙理工大学</t>
+  </si>
+  <si>
+    <t>西安建筑科技大学</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,16 +742,333 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -302,15 +1076,290 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - 着色 1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="41" xr:uid="{04210060-C6AA-4679-95C4-AC1AA2521AA8}"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="42" xr:uid="{26E034EA-EB1F-4FAE-8931-A2A5095B2974}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -588,17 +1637,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="53.77734375" customWidth="1"/>
     <col min="5" max="5" width="26.5546875" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" customWidth="1"/>
     <col min="10" max="10" width="9.109375" customWidth="1"/>
@@ -827,24 +1876,24 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -856,12 +1905,12 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -873,12 +1922,12 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -890,12 +1939,12 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -907,12 +1956,12 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -921,15 +1970,15 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
@@ -941,12 +1990,12 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
@@ -958,12 +2007,12 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -975,12 +2024,12 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -992,12 +2041,12 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
@@ -1006,15 +2055,15 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
@@ -1026,12 +2075,12 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
@@ -1043,12 +2092,12 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -1060,12 +2109,12 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
@@ -1077,12 +2126,12 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
@@ -1094,12 +2143,12 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -1108,15 +2157,15 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -1128,12 +2177,12 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
@@ -1142,15 +2191,15 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -1162,7 +2211,7 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1179,12 +2228,12 @@
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1196,12 +2245,12 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -1213,12 +2262,12 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
@@ -1230,12 +2279,12 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
@@ -1244,15 +2293,15 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
@@ -1264,12 +2313,12 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
         <v>36</v>
@@ -1281,12 +2330,12 @@
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
@@ -1298,12 +2347,12 @@
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
         <v>36</v>
@@ -1315,12 +2364,12 @@
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
         <v>36</v>
@@ -1332,7 +2381,2030 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" t="s">
+        <v>128</v>
+      </c>
+      <c r="E81" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" t="s">
+        <v>128</v>
+      </c>
+      <c r="E83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" t="s">
+        <v>127</v>
+      </c>
+      <c r="D84" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" t="s">
+        <v>127</v>
+      </c>
+      <c r="D85" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" t="s">
+        <v>128</v>
+      </c>
+      <c r="E88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" t="s">
+        <v>127</v>
+      </c>
+      <c r="D89" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" t="s">
+        <v>128</v>
+      </c>
+      <c r="E90" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" t="s">
+        <v>128</v>
+      </c>
+      <c r="E91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" t="s">
+        <v>128</v>
+      </c>
+      <c r="E92" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" t="s">
+        <v>126</v>
+      </c>
+      <c r="C93" t="s">
+        <v>127</v>
+      </c>
+      <c r="D93" t="s">
+        <v>128</v>
+      </c>
+      <c r="E93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" t="s">
+        <v>128</v>
+      </c>
+      <c r="E94" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" t="s">
+        <v>127</v>
+      </c>
+      <c r="D95" t="s">
+        <v>128</v>
+      </c>
+      <c r="E95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96" t="s">
+        <v>127</v>
+      </c>
+      <c r="D96" t="s">
+        <v>128</v>
+      </c>
+      <c r="E96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" t="s">
+        <v>128</v>
+      </c>
+      <c r="E97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" t="s">
+        <v>128</v>
+      </c>
+      <c r="E98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" t="s">
+        <v>128</v>
+      </c>
+      <c r="E99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" t="s">
+        <v>191</v>
+      </c>
+      <c r="D100" t="s">
+        <v>106</v>
+      </c>
+      <c r="E100" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101" t="s">
+        <v>191</v>
+      </c>
+      <c r="D101" t="s">
+        <v>106</v>
+      </c>
+      <c r="E101" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" t="s">
+        <v>190</v>
+      </c>
+      <c r="C102" t="s">
+        <v>191</v>
+      </c>
+      <c r="D102" t="s">
+        <v>106</v>
+      </c>
+      <c r="E102" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103" t="s">
+        <v>191</v>
+      </c>
+      <c r="D103" t="s">
+        <v>106</v>
+      </c>
+      <c r="E103" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" t="s">
+        <v>190</v>
+      </c>
+      <c r="C104" t="s">
+        <v>191</v>
+      </c>
+      <c r="D104" t="s">
+        <v>106</v>
+      </c>
+      <c r="E104" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" t="s">
+        <v>190</v>
+      </c>
+      <c r="C105" t="s">
+        <v>191</v>
+      </c>
+      <c r="D105" t="s">
+        <v>106</v>
+      </c>
+      <c r="E105" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" t="s">
+        <v>190</v>
+      </c>
+      <c r="C106" t="s">
+        <v>191</v>
+      </c>
+      <c r="D106" t="s">
+        <v>106</v>
+      </c>
+      <c r="E106" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>147</v>
+      </c>
+      <c r="B107" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" t="s">
+        <v>191</v>
+      </c>
+      <c r="D107" t="s">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" t="s">
+        <v>190</v>
+      </c>
+      <c r="C108" t="s">
+        <v>191</v>
+      </c>
+      <c r="D108" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>149</v>
+      </c>
+      <c r="B109" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109" t="s">
+        <v>107</v>
+      </c>
+      <c r="E109" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" t="s">
+        <v>190</v>
+      </c>
+      <c r="C110" t="s">
+        <v>191</v>
+      </c>
+      <c r="D110" t="s">
+        <v>108</v>
+      </c>
+      <c r="E110" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>151</v>
+      </c>
+      <c r="B111" t="s">
+        <v>190</v>
+      </c>
+      <c r="C111" t="s">
+        <v>191</v>
+      </c>
+      <c r="D111" t="s">
+        <v>108</v>
+      </c>
+      <c r="E111" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>152</v>
+      </c>
+      <c r="B112" t="s">
+        <v>190</v>
+      </c>
+      <c r="C112" t="s">
+        <v>191</v>
+      </c>
+      <c r="D112" t="s">
+        <v>108</v>
+      </c>
+      <c r="E112" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>153</v>
+      </c>
+      <c r="B113" t="s">
+        <v>190</v>
+      </c>
+      <c r="C113" t="s">
+        <v>191</v>
+      </c>
+      <c r="D113" t="s">
+        <v>108</v>
+      </c>
+      <c r="E113" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>154</v>
+      </c>
+      <c r="B114" t="s">
+        <v>190</v>
+      </c>
+      <c r="C114" t="s">
+        <v>191</v>
+      </c>
+      <c r="D114" t="s">
+        <v>108</v>
+      </c>
+      <c r="E114" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>155</v>
+      </c>
+      <c r="B115" t="s">
+        <v>190</v>
+      </c>
+      <c r="C115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D115" t="s">
+        <v>109</v>
+      </c>
+      <c r="E115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>156</v>
+      </c>
+      <c r="B116" t="s">
+        <v>190</v>
+      </c>
+      <c r="C116" t="s">
+        <v>191</v>
+      </c>
+      <c r="D116" t="s">
+        <v>109</v>
+      </c>
+      <c r="E116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117" t="s">
+        <v>190</v>
+      </c>
+      <c r="C117" t="s">
+        <v>191</v>
+      </c>
+      <c r="D117" t="s">
+        <v>109</v>
+      </c>
+      <c r="E117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" t="s">
+        <v>190</v>
+      </c>
+      <c r="C118" t="s">
+        <v>191</v>
+      </c>
+      <c r="D118" t="s">
+        <v>110</v>
+      </c>
+      <c r="E118" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" t="s">
+        <v>190</v>
+      </c>
+      <c r="C119" t="s">
+        <v>191</v>
+      </c>
+      <c r="D119" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>137</v>
+      </c>
+      <c r="B120" t="s">
+        <v>190</v>
+      </c>
+      <c r="C120" t="s">
+        <v>191</v>
+      </c>
+      <c r="D120" t="s">
+        <v>111</v>
+      </c>
+      <c r="E120" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" t="s">
+        <v>190</v>
+      </c>
+      <c r="C121" t="s">
+        <v>191</v>
+      </c>
+      <c r="D121" t="s">
+        <v>112</v>
+      </c>
+      <c r="E121" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122" t="s">
+        <v>190</v>
+      </c>
+      <c r="C122" t="s">
+        <v>191</v>
+      </c>
+      <c r="D122" t="s">
+        <v>113</v>
+      </c>
+      <c r="E122" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>159</v>
+      </c>
+      <c r="B123" t="s">
+        <v>190</v>
+      </c>
+      <c r="C123" t="s">
+        <v>191</v>
+      </c>
+      <c r="D123" t="s">
+        <v>114</v>
+      </c>
+      <c r="E123" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>160</v>
+      </c>
+      <c r="B124" t="s">
+        <v>190</v>
+      </c>
+      <c r="C124" t="s">
+        <v>191</v>
+      </c>
+      <c r="D124" t="s">
+        <v>114</v>
+      </c>
+      <c r="E124" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>161</v>
+      </c>
+      <c r="B125" t="s">
+        <v>190</v>
+      </c>
+      <c r="C125" t="s">
+        <v>191</v>
+      </c>
+      <c r="D125" t="s">
+        <v>114</v>
+      </c>
+      <c r="E125" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>162</v>
+      </c>
+      <c r="B126" t="s">
+        <v>190</v>
+      </c>
+      <c r="C126" t="s">
+        <v>191</v>
+      </c>
+      <c r="D126" t="s">
+        <v>114</v>
+      </c>
+      <c r="E126" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>163</v>
+      </c>
+      <c r="B127" t="s">
+        <v>190</v>
+      </c>
+      <c r="C127" t="s">
+        <v>191</v>
+      </c>
+      <c r="D127" t="s">
+        <v>114</v>
+      </c>
+      <c r="E127" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>164</v>
+      </c>
+      <c r="B128" t="s">
+        <v>190</v>
+      </c>
+      <c r="C128" t="s">
+        <v>191</v>
+      </c>
+      <c r="D128" t="s">
+        <v>114</v>
+      </c>
+      <c r="E128" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>190</v>
+      </c>
+      <c r="C129" t="s">
+        <v>191</v>
+      </c>
+      <c r="D129" t="s">
+        <v>115</v>
+      </c>
+      <c r="E129" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>190</v>
+      </c>
+      <c r="C130" t="s">
+        <v>191</v>
+      </c>
+      <c r="D130" t="s">
+        <v>116</v>
+      </c>
+      <c r="E130" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" t="s">
+        <v>190</v>
+      </c>
+      <c r="C131" t="s">
+        <v>191</v>
+      </c>
+      <c r="D131" t="s">
+        <v>117</v>
+      </c>
+      <c r="E131" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" t="s">
+        <v>190</v>
+      </c>
+      <c r="C132" t="s">
+        <v>191</v>
+      </c>
+      <c r="D132" t="s">
+        <v>117</v>
+      </c>
+      <c r="E132" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>166</v>
+      </c>
+      <c r="B133" t="s">
+        <v>190</v>
+      </c>
+      <c r="C133" t="s">
+        <v>191</v>
+      </c>
+      <c r="D133" t="s">
+        <v>117</v>
+      </c>
+      <c r="E133" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>167</v>
+      </c>
+      <c r="B134" t="s">
+        <v>190</v>
+      </c>
+      <c r="C134" t="s">
+        <v>191</v>
+      </c>
+      <c r="D134" t="s">
+        <v>117</v>
+      </c>
+      <c r="E134" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" t="s">
+        <v>190</v>
+      </c>
+      <c r="C135" t="s">
+        <v>191</v>
+      </c>
+      <c r="D135" t="s">
+        <v>117</v>
+      </c>
+      <c r="E135" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>169</v>
+      </c>
+      <c r="B136" t="s">
+        <v>190</v>
+      </c>
+      <c r="C136" t="s">
+        <v>191</v>
+      </c>
+      <c r="D136" t="s">
+        <v>117</v>
+      </c>
+      <c r="E136" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>170</v>
+      </c>
+      <c r="B137" t="s">
+        <v>190</v>
+      </c>
+      <c r="C137" t="s">
+        <v>191</v>
+      </c>
+      <c r="D137" t="s">
+        <v>117</v>
+      </c>
+      <c r="E137" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>171</v>
+      </c>
+      <c r="B138" t="s">
+        <v>190</v>
+      </c>
+      <c r="C138" t="s">
+        <v>191</v>
+      </c>
+      <c r="D138" t="s">
+        <v>117</v>
+      </c>
+      <c r="E138" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" t="s">
+        <v>190</v>
+      </c>
+      <c r="C139" t="s">
+        <v>191</v>
+      </c>
+      <c r="D139" t="s">
+        <v>118</v>
+      </c>
+      <c r="E139" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>172</v>
+      </c>
+      <c r="B140" t="s">
+        <v>190</v>
+      </c>
+      <c r="C140" t="s">
+        <v>191</v>
+      </c>
+      <c r="D140" t="s">
+        <v>119</v>
+      </c>
+      <c r="E140" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>173</v>
+      </c>
+      <c r="B141" t="s">
+        <v>190</v>
+      </c>
+      <c r="C141" t="s">
+        <v>191</v>
+      </c>
+      <c r="D141" t="s">
+        <v>119</v>
+      </c>
+      <c r="E141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>174</v>
+      </c>
+      <c r="B142" t="s">
+        <v>190</v>
+      </c>
+      <c r="C142" t="s">
+        <v>191</v>
+      </c>
+      <c r="D142" t="s">
+        <v>119</v>
+      </c>
+      <c r="E142" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>175</v>
+      </c>
+      <c r="B143" t="s">
+        <v>190</v>
+      </c>
+      <c r="C143" t="s">
+        <v>191</v>
+      </c>
+      <c r="D143" t="s">
+        <v>119</v>
+      </c>
+      <c r="E143" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>176</v>
+      </c>
+      <c r="B144" t="s">
+        <v>190</v>
+      </c>
+      <c r="C144" t="s">
+        <v>191</v>
+      </c>
+      <c r="D144" t="s">
+        <v>119</v>
+      </c>
+      <c r="E144" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>177</v>
+      </c>
+      <c r="B145" t="s">
+        <v>190</v>
+      </c>
+      <c r="C145" t="s">
+        <v>191</v>
+      </c>
+      <c r="D145" t="s">
+        <v>119</v>
+      </c>
+      <c r="E145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>135</v>
+      </c>
+      <c r="B146" t="s">
+        <v>190</v>
+      </c>
+      <c r="C146" t="s">
+        <v>191</v>
+      </c>
+      <c r="D146" t="s">
+        <v>120</v>
+      </c>
+      <c r="E146" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>136</v>
+      </c>
+      <c r="B147" t="s">
+        <v>190</v>
+      </c>
+      <c r="C147" t="s">
+        <v>191</v>
+      </c>
+      <c r="D147" t="s">
+        <v>121</v>
+      </c>
+      <c r="E147" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>178</v>
+      </c>
+      <c r="B148" t="s">
+        <v>190</v>
+      </c>
+      <c r="C148" t="s">
+        <v>191</v>
+      </c>
+      <c r="D148" t="s">
+        <v>122</v>
+      </c>
+      <c r="E148" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>179</v>
+      </c>
+      <c r="B149" t="s">
+        <v>190</v>
+      </c>
+      <c r="C149" t="s">
+        <v>191</v>
+      </c>
+      <c r="D149" t="s">
+        <v>122</v>
+      </c>
+      <c r="E149" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>180</v>
+      </c>
+      <c r="B150" t="s">
+        <v>190</v>
+      </c>
+      <c r="C150" t="s">
+        <v>191</v>
+      </c>
+      <c r="D150" t="s">
+        <v>122</v>
+      </c>
+      <c r="E150" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>181</v>
+      </c>
+      <c r="B151" t="s">
+        <v>190</v>
+      </c>
+      <c r="C151" t="s">
+        <v>191</v>
+      </c>
+      <c r="D151" t="s">
+        <v>122</v>
+      </c>
+      <c r="E151" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>182</v>
+      </c>
+      <c r="B152" t="s">
+        <v>190</v>
+      </c>
+      <c r="C152" t="s">
+        <v>191</v>
+      </c>
+      <c r="D152" t="s">
+        <v>122</v>
+      </c>
+      <c r="E152" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>183</v>
+      </c>
+      <c r="B153" t="s">
+        <v>190</v>
+      </c>
+      <c r="C153" t="s">
+        <v>191</v>
+      </c>
+      <c r="D153" t="s">
+        <v>123</v>
+      </c>
+      <c r="E153" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>132</v>
+      </c>
+      <c r="B154" t="s">
+        <v>190</v>
+      </c>
+      <c r="C154" t="s">
+        <v>191</v>
+      </c>
+      <c r="D154" t="s">
+        <v>123</v>
+      </c>
+      <c r="E154" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>184</v>
+      </c>
+      <c r="B155" t="s">
+        <v>190</v>
+      </c>
+      <c r="C155" t="s">
+        <v>191</v>
+      </c>
+      <c r="D155" t="s">
+        <v>123</v>
+      </c>
+      <c r="E155" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>185</v>
+      </c>
+      <c r="B156" t="s">
+        <v>190</v>
+      </c>
+      <c r="C156" t="s">
+        <v>191</v>
+      </c>
+      <c r="D156" t="s">
+        <v>123</v>
+      </c>
+      <c r="E156" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>186</v>
+      </c>
+      <c r="B157" t="s">
+        <v>190</v>
+      </c>
+      <c r="C157" t="s">
+        <v>191</v>
+      </c>
+      <c r="D157" t="s">
+        <v>123</v>
+      </c>
+      <c r="E157" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>187</v>
+      </c>
+      <c r="B158" t="s">
+        <v>190</v>
+      </c>
+      <c r="C158" t="s">
+        <v>191</v>
+      </c>
+      <c r="D158" t="s">
+        <v>123</v>
+      </c>
+      <c r="E158" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>188</v>
+      </c>
+      <c r="B159" t="s">
+        <v>190</v>
+      </c>
+      <c r="C159" t="s">
+        <v>191</v>
+      </c>
+      <c r="D159" t="s">
+        <v>123</v>
+      </c>
+      <c r="E159" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>189</v>
+      </c>
+      <c r="B160" t="s">
+        <v>190</v>
+      </c>
+      <c r="C160" t="s">
+        <v>191</v>
+      </c>
+      <c r="D160" t="s">
+        <v>123</v>
+      </c>
+      <c r="E160" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>137</v>
+      </c>
+      <c r="B161" t="s">
+        <v>190</v>
+      </c>
+      <c r="C161" t="s">
+        <v>191</v>
+      </c>
+      <c r="D161" t="s">
+        <v>124</v>
+      </c>
+      <c r="E161" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>138</v>
+      </c>
+      <c r="B162" t="s">
+        <v>190</v>
+      </c>
+      <c r="C162" t="s">
+        <v>191</v>
+      </c>
+      <c r="D162" t="s">
+        <v>125</v>
+      </c>
+      <c r="E162" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
